--- a/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj89.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj89.xlsx
@@ -49,11 +49,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -384,13 +384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="I314" sqref="I314"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="F340" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>89</v>
       </c>
@@ -467,7 +467,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>89</v>
       </c>
@@ -532,7 +532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>89</v>
       </c>
@@ -609,7 +609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>89</v>
       </c>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>89</v>
       </c>
@@ -766,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>89</v>
       </c>
@@ -843,7 +843,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>89</v>
       </c>
@@ -923,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>89</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>89</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>89</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>89</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>89</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>89</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>89</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>89</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>89</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>89</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>89</v>
       </c>
@@ -1872,15 +1872,6 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <v>14</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
       <c r="X20">
         <v>0</v>
       </c>
@@ -1888,7 +1879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>89</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>89</v>
       </c>
@@ -2042,7 +2033,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>89</v>
       </c>
@@ -2119,7 +2110,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>89</v>
       </c>
@@ -2199,7 +2190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>89</v>
       </c>
@@ -2276,7 +2267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>89</v>
       </c>
@@ -2353,7 +2344,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>89</v>
       </c>
@@ -2430,7 +2421,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>89</v>
       </c>
@@ -2507,7 +2498,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>89</v>
       </c>
@@ -2587,7 +2578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>89</v>
       </c>
@@ -2664,7 +2655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>89</v>
       </c>
@@ -2741,7 +2732,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>89</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>89</v>
       </c>
@@ -2895,7 +2886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>89</v>
       </c>
@@ -2975,7 +2966,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>89</v>
       </c>
@@ -3055,7 +3046,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>89</v>
       </c>
@@ -3132,7 +3123,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>89</v>
       </c>
@@ -3209,7 +3200,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>89</v>
       </c>
@@ -3286,7 +3277,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>89</v>
       </c>
@@ -3366,7 +3357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>89</v>
       </c>
@@ -3446,7 +3437,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>89</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>89</v>
       </c>
@@ -3603,7 +3594,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>89</v>
       </c>
@@ -3683,7 +3674,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>89</v>
       </c>
@@ -3760,7 +3751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>89</v>
       </c>
@@ -3837,7 +3828,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>89</v>
       </c>
@@ -3914,7 +3905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>89</v>
       </c>
@@ -3991,7 +3982,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>89</v>
       </c>
@@ -4071,7 +4062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>89</v>
       </c>
@@ -4148,7 +4139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>89</v>
       </c>
@@ -4225,7 +4216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>89</v>
       </c>
@@ -4302,7 +4293,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>89</v>
       </c>
@@ -4379,7 +4370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>89</v>
       </c>
@@ -4459,7 +4450,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>89</v>
       </c>
@@ -4536,7 +4527,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>89</v>
       </c>
@@ -4616,7 +4607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>89</v>
       </c>
@@ -4696,7 +4687,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4773,7 +4764,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>89</v>
       </c>
@@ -4850,7 +4841,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>89</v>
       </c>
@@ -4927,7 +4918,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>89</v>
       </c>
@@ -4943,15 +4934,6 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60">
-        <v>28</v>
-      </c>
-      <c r="G60">
-        <v>22</v>
-      </c>
-      <c r="H60">
-        <v>17</v>
-      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -4959,7 +4941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>89</v>
       </c>
@@ -4975,15 +4957,6 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>28</v>
-      </c>
-      <c r="G61">
-        <v>24</v>
-      </c>
-      <c r="H61">
-        <v>21</v>
-      </c>
       <c r="X61">
         <v>0</v>
       </c>
@@ -4991,7 +4964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>89</v>
       </c>
@@ -5007,15 +4980,6 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>27</v>
-      </c>
-      <c r="G62">
-        <v>25</v>
-      </c>
-      <c r="H62">
-        <v>24</v>
-      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -5023,7 +4987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>89</v>
       </c>
@@ -5088,7 +5052,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>89</v>
       </c>
@@ -5165,7 +5129,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>89</v>
       </c>
@@ -5242,7 +5206,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>89</v>
       </c>
@@ -5319,7 +5283,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>89</v>
       </c>
@@ -5384,7 +5348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>89</v>
       </c>
@@ -5449,7 +5413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>89</v>
       </c>
@@ -5526,7 +5490,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>89</v>
       </c>
@@ -5603,7 +5567,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>89</v>
       </c>
@@ -5680,7 +5644,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>89</v>
       </c>
@@ -5757,7 +5721,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>89</v>
       </c>
@@ -5834,7 +5798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>89</v>
       </c>
@@ -5911,7 +5875,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>89</v>
       </c>
@@ -5988,7 +5952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>89</v>
       </c>
@@ -6065,7 +6029,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>89</v>
       </c>
@@ -6145,7 +6109,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>89</v>
       </c>
@@ -6222,7 +6186,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>89</v>
       </c>
@@ -6299,7 +6263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>89</v>
       </c>
@@ -6376,7 +6340,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>89</v>
       </c>
@@ -6453,7 +6417,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>89</v>
       </c>
@@ -6530,7 +6494,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>89</v>
       </c>
@@ -6607,7 +6571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>89</v>
       </c>
@@ -6684,7 +6648,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>89</v>
       </c>
@@ -6749,7 +6713,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>89</v>
       </c>
@@ -6826,7 +6790,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>89</v>
       </c>
@@ -6903,7 +6867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>89</v>
       </c>
@@ -6980,7 +6944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>89</v>
       </c>
@@ -7057,7 +7021,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7134,7 +7098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7211,7 +7175,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>89</v>
       </c>
@@ -7288,7 +7252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>89</v>
       </c>
@@ -7365,7 +7329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>89</v>
       </c>
@@ -7442,7 +7406,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>89</v>
       </c>
@@ -7519,7 +7483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>89</v>
       </c>
@@ -7596,7 +7560,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>89</v>
       </c>
@@ -7673,7 +7637,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>89</v>
       </c>
@@ -7738,7 +7702,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>89</v>
       </c>
@@ -7803,7 +7767,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>89</v>
       </c>
@@ -7868,7 +7832,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>89</v>
       </c>
@@ -7933,7 +7897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>89</v>
       </c>
@@ -7998,7 +7962,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>89</v>
       </c>
@@ -8063,7 +8027,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>89</v>
       </c>
@@ -8128,7 +8092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>89</v>
       </c>
@@ -8193,7 +8157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>89</v>
       </c>
@@ -8258,7 +8222,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>89</v>
       </c>
@@ -8335,7 +8299,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>89</v>
       </c>
@@ -8412,7 +8376,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>89</v>
       </c>
@@ -8489,7 +8453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>89</v>
       </c>
@@ -8566,7 +8530,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>89</v>
       </c>
@@ -8643,7 +8607,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>89</v>
       </c>
@@ -8708,7 +8672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>89</v>
       </c>
@@ -8773,7 +8737,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>89</v>
       </c>
@@ -8850,7 +8814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>89</v>
       </c>
@@ -8915,7 +8879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>89</v>
       </c>
@@ -8980,7 +8944,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>89</v>
       </c>
@@ -9057,7 +9021,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>89</v>
       </c>
@@ -9134,7 +9098,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>89</v>
       </c>
@@ -9199,7 +9163,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>89</v>
       </c>
@@ -9264,7 +9228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>89</v>
       </c>
@@ -9329,7 +9293,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>89</v>
       </c>
@@ -9406,7 +9370,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>89</v>
       </c>
@@ -9483,7 +9447,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>89</v>
       </c>
@@ -9560,7 +9524,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>89</v>
       </c>
@@ -9637,7 +9601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>89</v>
       </c>
@@ -9714,7 +9678,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>89</v>
       </c>
@@ -9791,7 +9755,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>89</v>
       </c>
@@ -9868,7 +9832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>89</v>
       </c>
@@ -9945,7 +9909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>89</v>
       </c>
@@ -10022,7 +9986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>89</v>
       </c>
@@ -10099,7 +10063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>89</v>
       </c>
@@ -10176,7 +10140,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>89</v>
       </c>
@@ -10253,7 +10217,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>89</v>
       </c>
@@ -10330,7 +10294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>89</v>
       </c>
@@ -10407,7 +10371,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>89</v>
       </c>
@@ -10484,7 +10448,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>89</v>
       </c>
@@ -10561,7 +10525,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>89</v>
       </c>
@@ -10638,7 +10602,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>89</v>
       </c>
@@ -10715,7 +10679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>89</v>
       </c>
@@ -10792,7 +10756,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>89</v>
       </c>
@@ -10869,7 +10833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>89</v>
       </c>
@@ -10946,7 +10910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>89</v>
       </c>
@@ -11023,7 +10987,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>89</v>
       </c>
@@ -11100,7 +11064,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>89</v>
       </c>
@@ -11177,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>89</v>
       </c>
@@ -11254,7 +11218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>89</v>
       </c>
@@ -11331,7 +11295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>89</v>
       </c>
@@ -11408,7 +11372,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>89</v>
       </c>
@@ -11485,7 +11449,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>89</v>
       </c>
@@ -11562,7 +11526,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>89</v>
       </c>
@@ -11639,7 +11603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>89</v>
       </c>
@@ -11704,7 +11668,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>89</v>
       </c>
@@ -11769,7 +11733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>89</v>
       </c>
@@ -11846,7 +11810,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>89</v>
       </c>
@@ -11923,7 +11887,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>89</v>
       </c>
@@ -12000,7 +11964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>89</v>
       </c>
@@ -12077,7 +12041,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>89</v>
       </c>
@@ -12154,7 +12118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>89</v>
       </c>
@@ -12231,7 +12195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>89</v>
       </c>
@@ -12308,7 +12272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>89</v>
       </c>
@@ -12385,7 +12349,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>89</v>
       </c>
@@ -12462,7 +12426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>89</v>
       </c>
@@ -12539,7 +12503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>89</v>
       </c>
@@ -12616,7 +12580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>89</v>
       </c>
@@ -12693,7 +12657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>89</v>
       </c>
@@ -12770,7 +12734,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>89</v>
       </c>
@@ -12847,7 +12811,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>89</v>
       </c>
@@ -12924,7 +12888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>89</v>
       </c>
@@ -12989,7 +12953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>89</v>
       </c>
@@ -13066,7 +13030,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>89</v>
       </c>
@@ -13143,7 +13107,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>89</v>
       </c>
@@ -13220,7 +13184,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>89</v>
       </c>
@@ -13297,7 +13261,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>89</v>
       </c>
@@ -13374,7 +13338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>89</v>
       </c>
@@ -13439,7 +13403,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>89</v>
       </c>
@@ -13516,7 +13480,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>89</v>
       </c>
@@ -13581,7 +13545,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>89</v>
       </c>
@@ -13658,7 +13622,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>89</v>
       </c>
@@ -13723,7 +13687,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>89</v>
       </c>
@@ -13788,7 +13752,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>89</v>
       </c>
@@ -13853,7 +13817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>89</v>
       </c>
@@ -13930,7 +13894,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>89</v>
       </c>
@@ -14010,7 +13974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>89</v>
       </c>
@@ -14087,7 +14051,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>89</v>
       </c>
@@ -14164,7 +14128,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>89</v>
       </c>
@@ -14241,7 +14205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>89</v>
       </c>
@@ -14318,7 +14282,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>89</v>
       </c>
@@ -14383,7 +14347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>89</v>
       </c>
@@ -14448,7 +14412,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>89</v>
       </c>
@@ -14525,7 +14489,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>89</v>
       </c>
@@ -14602,7 +14566,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>89</v>
       </c>
@@ -14679,7 +14643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>89</v>
       </c>
@@ -14756,7 +14720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>89</v>
       </c>
@@ -14833,7 +14797,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>89</v>
       </c>
@@ -14910,7 +14874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>89</v>
       </c>
@@ -14987,7 +14951,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>89</v>
       </c>
@@ -15064,7 +15028,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>89</v>
       </c>
@@ -15141,7 +15105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>89</v>
       </c>
@@ -15218,7 +15182,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>89</v>
       </c>
@@ -15295,7 +15259,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>89</v>
       </c>
@@ -15372,7 +15336,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>89</v>
       </c>
@@ -15449,7 +15413,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>89</v>
       </c>
@@ -15526,7 +15490,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>89</v>
       </c>
@@ -15603,7 +15567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>89</v>
       </c>
@@ -15683,7 +15647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>89</v>
       </c>
@@ -15760,7 +15724,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>89</v>
       </c>
@@ -15825,7 +15789,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>89</v>
       </c>
@@ -15890,7 +15854,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>89</v>
       </c>
@@ -15967,7 +15931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>89</v>
       </c>
@@ -16044,7 +16008,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>89</v>
       </c>
@@ -16121,7 +16085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>89</v>
       </c>
@@ -16198,7 +16162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>89</v>
       </c>
@@ -16275,7 +16239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>89</v>
       </c>
@@ -16340,7 +16304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>89</v>
       </c>
@@ -16405,7 +16369,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>89</v>
       </c>
@@ -16470,7 +16434,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>89</v>
       </c>
@@ -16535,7 +16499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>89</v>
       </c>
@@ -16612,7 +16576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>89</v>
       </c>
@@ -16677,7 +16641,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>89</v>
       </c>
@@ -16754,7 +16718,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>89</v>
       </c>
@@ -16831,7 +16795,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>89</v>
       </c>
@@ -16908,7 +16872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>89</v>
       </c>
@@ -16973,7 +16937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>89</v>
       </c>
@@ -17050,7 +17014,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>89</v>
       </c>
@@ -17127,7 +17091,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>89</v>
       </c>
@@ -17207,7 +17171,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>89</v>
       </c>
@@ -17287,7 +17251,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>89</v>
       </c>
@@ -17367,7 +17331,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>89</v>
       </c>
@@ -17444,7 +17408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>89</v>
       </c>
@@ -17521,7 +17485,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>89</v>
       </c>
@@ -17598,7 +17562,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>89</v>
       </c>
@@ -17675,7 +17639,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>89</v>
       </c>
@@ -17752,7 +17716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>89</v>
       </c>
@@ -17829,7 +17793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>89</v>
       </c>
@@ -17906,7 +17870,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>89</v>
       </c>
@@ -17971,7 +17935,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>89</v>
       </c>
@@ -18036,7 +18000,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>89</v>
       </c>
@@ -18113,7 +18077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>89</v>
       </c>
@@ -18178,7 +18142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>89</v>
       </c>
@@ -18243,7 +18207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>89</v>
       </c>
@@ -18308,7 +18272,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>89</v>
       </c>
@@ -18373,7 +18337,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>89</v>
       </c>
@@ -18438,7 +18402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>89</v>
       </c>
@@ -18503,7 +18467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>89</v>
       </c>
@@ -18568,7 +18532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>89</v>
       </c>
@@ -18645,7 +18609,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>89</v>
       </c>
@@ -18722,7 +18686,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>89</v>
       </c>
@@ -18799,7 +18763,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>89</v>
       </c>
@@ -18864,7 +18828,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>89</v>
       </c>
@@ -18929,7 +18893,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>89</v>
       </c>
@@ -18994,7 +18958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>89</v>
       </c>
@@ -19059,7 +19023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>89</v>
       </c>
@@ -19124,7 +19088,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>89</v>
       </c>
@@ -19189,7 +19153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>89</v>
       </c>
@@ -19254,7 +19218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>89</v>
       </c>
@@ -19319,7 +19283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>89</v>
       </c>
@@ -19384,7 +19348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>89</v>
       </c>
@@ -19449,7 +19413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>89</v>
       </c>
@@ -19514,7 +19478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>89</v>
       </c>
@@ -19591,7 +19555,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>89</v>
       </c>
@@ -19656,7 +19620,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>89</v>
       </c>
@@ -19733,7 +19697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>89</v>
       </c>
@@ -19798,7 +19762,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>89</v>
       </c>
@@ -19863,7 +19827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>89</v>
       </c>
@@ -19940,7 +19904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>89</v>
       </c>
@@ -20020,7 +19984,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>89</v>
       </c>
@@ -20100,7 +20064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>89</v>
       </c>
@@ -20180,7 +20144,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>89</v>
       </c>
@@ -20260,7 +20224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>89</v>
       </c>
@@ -20337,7 +20301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>89</v>
       </c>
@@ -20402,7 +20366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>89</v>
       </c>
@@ -20476,7 +20440,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>89</v>
       </c>
@@ -20556,7 +20520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>89</v>
       </c>
@@ -20636,7 +20600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>89</v>
       </c>
@@ -20713,7 +20677,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>89</v>
       </c>
@@ -20793,7 +20757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>89</v>
       </c>
@@ -20870,7 +20834,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>89</v>
       </c>
@@ -20947,7 +20911,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>89</v>
       </c>
@@ -21024,7 +20988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>89</v>
       </c>
@@ -21101,7 +21065,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>89</v>
       </c>
@@ -21178,7 +21142,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>89</v>
       </c>
@@ -21255,7 +21219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>89</v>
       </c>
@@ -21320,7 +21284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>89</v>
       </c>
@@ -21385,7 +21349,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>89</v>
       </c>
@@ -21450,7 +21414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>89</v>
       </c>
@@ -21530,7 +21494,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>89</v>
       </c>
@@ -21610,7 +21574,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>89</v>
       </c>
@@ -21687,7 +21651,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>89</v>
       </c>
@@ -21752,7 +21716,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>89</v>
       </c>
@@ -21832,7 +21796,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>89</v>
       </c>
@@ -21912,7 +21876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>89</v>
       </c>
@@ -21989,7 +21953,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>89</v>
       </c>
@@ -22066,7 +22030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>89</v>
       </c>
@@ -22146,7 +22110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>89</v>
       </c>
@@ -22226,7 +22190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>89</v>
       </c>
@@ -22306,7 +22270,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>89</v>
       </c>
@@ -22386,7 +22350,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>89</v>
       </c>
@@ -22466,7 +22430,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>89</v>
       </c>
@@ -22543,7 +22507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>89</v>
       </c>
@@ -22623,7 +22587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>89</v>
       </c>
@@ -22703,7 +22667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>89</v>
       </c>
@@ -22783,7 +22747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>89</v>
       </c>
@@ -22860,7 +22824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>89</v>
       </c>
@@ -22940,7 +22904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>89</v>
       </c>
@@ -23020,7 +22984,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>89</v>
       </c>
@@ -23100,7 +23064,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>89</v>
       </c>
@@ -23180,7 +23144,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>89</v>
       </c>
@@ -23260,7 +23224,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>89</v>
       </c>
@@ -23340,7 +23304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>89</v>
       </c>
@@ -23420,7 +23384,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>89</v>
       </c>
@@ -23497,7 +23461,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>89</v>
       </c>
@@ -23577,7 +23541,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>89</v>
       </c>
@@ -23593,15 +23557,6 @@
       <c r="E313">
         <v>1</v>
       </c>
-      <c r="F313">
-        <v>4</v>
-      </c>
-      <c r="G313">
-        <v>1</v>
-      </c>
-      <c r="H313">
-        <v>-1</v>
-      </c>
       <c r="X313">
         <v>0</v>
       </c>
@@ -23609,7 +23564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>89</v>
       </c>
@@ -23625,15 +23580,6 @@
       <c r="E314">
         <v>1</v>
       </c>
-      <c r="F314">
-        <v>5</v>
-      </c>
-      <c r="G314">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>-2</v>
-      </c>
       <c r="X314">
         <v>0</v>
       </c>
@@ -23641,7 +23587,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>89</v>
       </c>
@@ -23721,7 +23667,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>89</v>
       </c>
@@ -23801,7 +23747,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>89</v>
       </c>
@@ -23881,7 +23827,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>89</v>
       </c>
@@ -23961,7 +23907,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>89</v>
       </c>
@@ -24041,7 +23987,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>89</v>
       </c>
@@ -24121,7 +24067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>89</v>
       </c>
@@ -24201,7 +24147,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>89</v>
       </c>
@@ -24281,7 +24227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>89</v>
       </c>
@@ -24346,7 +24292,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>89</v>
       </c>
@@ -24411,7 +24357,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>89</v>
       </c>
@@ -24476,7 +24422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>89</v>
       </c>
@@ -24541,7 +24487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>89</v>
       </c>
@@ -24618,7 +24564,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>89</v>
       </c>
@@ -24698,7 +24644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>89</v>
       </c>
@@ -24778,7 +24724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>89</v>
       </c>
@@ -24843,7 +24789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>89</v>
       </c>
@@ -24920,7 +24866,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>89</v>
       </c>
@@ -24997,7 +24943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>89</v>
       </c>
@@ -25077,7 +25023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>89</v>
       </c>
@@ -25157,7 +25103,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>89</v>
       </c>
@@ -25234,7 +25180,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>89</v>
       </c>
@@ -25311,7 +25257,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>89</v>
       </c>
@@ -25391,7 +25337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>89</v>
       </c>
@@ -25471,7 +25417,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>89</v>
       </c>
@@ -25548,7 +25494,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>89</v>
       </c>
@@ -25625,7 +25571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>89</v>
       </c>
@@ -25702,7 +25648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>89</v>
       </c>
@@ -25779,7 +25725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>89</v>
       </c>
@@ -25859,7 +25805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>89</v>
       </c>
@@ -25936,7 +25882,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>89</v>
       </c>
@@ -26016,7 +25962,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>89</v>
       </c>
@@ -26096,7 +26042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>89</v>
       </c>
@@ -26176,7 +26122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>89</v>
       </c>
@@ -26256,7 +26202,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>89</v>
       </c>
@@ -26333,7 +26279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>89</v>
       </c>
@@ -26410,7 +26356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>89</v>
       </c>
@@ -26475,7 +26421,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>89</v>
       </c>
@@ -26552,7 +26498,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>89</v>
       </c>
@@ -26632,7 +26578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>89</v>
       </c>
@@ -26712,7 +26658,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>89</v>
       </c>
@@ -26789,7 +26735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>89</v>
       </c>
@@ -26866,7 +26812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>89</v>
       </c>
@@ -26943,7 +26889,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>89</v>
       </c>
@@ -27023,7 +26969,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>89</v>
       </c>
@@ -27103,7 +27049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>89</v>
       </c>
@@ -27180,7 +27126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>89</v>
       </c>
@@ -27245,7 +27191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>89</v>
       </c>
@@ -27310,7 +27256,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>89</v>
       </c>
@@ -27375,7 +27321,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>89</v>
       </c>
@@ -27440,7 +27386,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>89</v>
       </c>
@@ -27516,7 +27462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27528,7 +27474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
